--- a/static/checklists/DPDPA_Healthcare_Checklist.xlsx
+++ b/static/checklists/DPDPA_Healthcare_Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshparekh/Desktop/clients/Securze/DPDPA/dpdpa-docs/static/checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA72656-C55B-544F-8C07-F14D2DB40980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD26489-D2C9-1C43-91BD-22C3B8CA020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,30 +20,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="156">
   <si>
     <t>Rule / Clause</t>
   </si>
@@ -457,9 +435,6 @@
   </si>
   <si>
     <t>Author</t>
-  </si>
-  <si>
-    <t>Harsh Parekh</t>
   </si>
   <si>
     <t>Email</t>
@@ -511,6 +486,15 @@
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Company Website</t>
+  </si>
+  <si>
+    <t>https://dpdpaedu.org</t>
+  </si>
+  <si>
+    <t>Harsh Parekh (Founder &amp; CEO)</t>
   </si>
 </sst>
 </file>
@@ -787,6 +771,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,9 +789,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,17 +821,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -861,68 +845,97 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C6583D-E843-CE73-A39B-2EA31EC73A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="1349375"/>
+          <a:ext cx="3251200" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77A2742-A29C-515B-F4C3-7DE8D638897C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="889000"/>
+          <a:ext cx="2374900" cy="668763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,17 +1225,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6868A7A-2A3A-EE4B-AA9A-D998DBA9B957}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1270,9 +1283,9 @@
         <v>134</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1280,132 +1293,129 @@
         <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="14" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45949</v>
+        <v>143</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45949</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="24"/>
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1413,8 +1423,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="31"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1422,8 +1434,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1431,8 +1443,8 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1440,8 +1452,8 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1449,8 +1461,8 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1458,8 +1470,8 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1467,8 +1479,8 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1476,8 +1488,8 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1485,8 +1497,8 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1494,8 +1506,8 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1503,30 +1515,28 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="24"/>
+      <c r="B29" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1534,8 +1544,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="31"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1543,8 +1555,8 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1552,8 +1564,8 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1561,8 +1573,8 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1570,8 +1582,8 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1579,8 +1591,8 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1588,25 +1600,37 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OmTHw7p2PheIaIE7lrgUP6PoTiM9aaz2Kh2MbipBQNk+z0R6hTPMtwH2Hu/CVTtD9qT0XMEeyNC6EIrip+f6Ag==" saltValue="bOPcrrC9BfkF1wvbH6AM+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="E7:G11"/>
-    <mergeCell ref="B16:C26"/>
-    <mergeCell ref="B29:C35"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lmNJI5srQedp82AQ/Q9k+2oNkVwYQtaxpRpytAjy84IsoGlG8Q6UgcBxAXAJ+Sj0BYGaLcnEGKqp11sDwnVyEw==" saltValue="At6fnns6QirfvZ45RaQ0bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B17:C27"/>
+    <mergeCell ref="B30:C36"/>
+    <mergeCell ref="E5:G9"/>
+    <mergeCell ref="E11:G15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://securze.com/" xr:uid="{0C9D2145-B230-FB4E-99EC-9DCC0DF8263C}"/>
-    <hyperlink ref="C8" r:id="rId2" display="mailto:info@securze.com" xr:uid="{8D6D5E3B-F6FF-0448-8164-B1F1558B4215}"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://securze.com/" xr:uid="{0C9D2145-B230-FB4E-99EC-9DCC0DF8263C}"/>
+    <hyperlink ref="C9" r:id="rId2" display="mailto:info@securze.com" xr:uid="{8D6D5E3B-F6FF-0448-8164-B1F1558B4215}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{A0EEEAC6-2571-E746-A574-ACA30FDF0010}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1615,7 +1639,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1644,2079 +1668,2079 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>152</v>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="37"/>
+      <c r="C2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="C3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="37"/>
+      <c r="C4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="37"/>
+      <c r="C5" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="37"/>
+      <c r="C6" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="37"/>
+      <c r="C7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="37"/>
+      <c r="C8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="37"/>
+      <c r="C9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="37"/>
+      <c r="C10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="37"/>
+      <c r="C11" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="37"/>
+      <c r="C12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="37"/>
+      <c r="C13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="37"/>
+      <c r="C14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="37"/>
+      <c r="C15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="37"/>
+      <c r="C16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="37"/>
+      <c r="C17" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="37"/>
+      <c r="C18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="37"/>
+      <c r="C19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="37"/>
+      <c r="C20" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="37"/>
+      <c r="C21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="37"/>
+      <c r="C22" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="37"/>
+      <c r="C23" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="37"/>
+      <c r="C24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="37"/>
+      <c r="C25" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="37"/>
+      <c r="C26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="37"/>
+      <c r="C27" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="37"/>
+      <c r="C28" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="37"/>
+      <c r="C29" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="37"/>
+      <c r="C30" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="37"/>
+      <c r="C31" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="37"/>
+      <c r="C32" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="37"/>
+      <c r="C33" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="37"/>
+      <c r="C34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="37"/>
+      <c r="C35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="37"/>
+      <c r="C36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="37"/>
+      <c r="C37" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="37"/>
+      <c r="C38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="37"/>
+      <c r="C39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="37"/>
+      <c r="C40" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="37"/>
+      <c r="C41" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="37"/>
+      <c r="C42" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="37"/>
+      <c r="C43" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="37"/>
+      <c r="C44" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="37"/>
+      <c r="C45" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="37"/>
+      <c r="C46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="37"/>
+      <c r="C47" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="37"/>
+      <c r="C48" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="37"/>
+      <c r="C49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="37"/>
+      <c r="C50" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="37"/>
+      <c r="C51" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="37"/>
+      <c r="C52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="37"/>
+      <c r="C53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="37"/>
+      <c r="C54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="37"/>
+      <c r="C55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" s="37"/>
+      <c r="C56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="37"/>
+      <c r="C57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="37"/>
+      <c r="C58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="37"/>
+      <c r="C59" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="37"/>
+      <c r="C60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="37"/>
+      <c r="C61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="37"/>
+      <c r="C62" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="37"/>
+      <c r="C63" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="37"/>
+      <c r="C64" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="37"/>
+      <c r="C65" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="37"/>
+      <c r="C66" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="37"/>
+      <c r="C67" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="37"/>
+      <c r="C68" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69" s="37"/>
+      <c r="C69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" s="37"/>
+      <c r="C70" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="37"/>
+      <c r="C71" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" s="37"/>
+      <c r="C72" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" s="37"/>
+      <c r="C73" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F74" s="37"/>
+      <c r="C74" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" s="37"/>
+      <c r="C75" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F76" s="37"/>
+      <c r="C76" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F77" s="37"/>
+      <c r="C77" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" s="37"/>
+      <c r="C78" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F79" s="37"/>
+      <c r="C79" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" s="21"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F80" s="37"/>
+      <c r="C80" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F81" s="37"/>
+      <c r="C81" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F82" s="37"/>
+      <c r="C82" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F83" s="37"/>
+      <c r="C83" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F84" s="37"/>
+      <c r="C84" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F85" s="37"/>
+      <c r="C85" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F86" s="37"/>
+      <c r="C86" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F87" s="37"/>
+      <c r="C87" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F88" s="37"/>
+      <c r="C88" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F89" s="37"/>
+      <c r="C89" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" s="37"/>
+      <c r="C90" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" s="37"/>
+      <c r="C91" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F91" s="21"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="37"/>
+      <c r="C92" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F93" s="37"/>
+      <c r="C93" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93" s="21"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F94" s="37"/>
+      <c r="C94" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" s="21"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="37"/>
+      <c r="C95" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95" s="21"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" s="37"/>
+      <c r="C96" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="21"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C97" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" s="37"/>
+      <c r="C97" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" s="21"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C98" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" s="37"/>
+      <c r="C98" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="21"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F99" s="37"/>
+      <c r="C99" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F99" s="21"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="37"/>
+      <c r="C100" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100" s="21"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F101" s="37"/>
+      <c r="C101" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="21"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C102" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="37"/>
+      <c r="C102" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="21"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="37"/>
+      <c r="C103" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="21"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F104" s="37"/>
+      <c r="C104" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="21"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" s="37"/>
+      <c r="C105" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="21"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F106" s="37"/>
+      <c r="C106" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F106" s="21"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F107" s="37"/>
+      <c r="C107" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F107" s="21"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C108" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F108" s="37"/>
+      <c r="C108" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F108" s="21"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C109" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F109" s="37"/>
+      <c r="C109" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="21"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="33" t="s">
+      <c r="A110" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C110" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F110" s="37"/>
+      <c r="C110" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110" s="21"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" s="37"/>
+      <c r="C111" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F111" s="21"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C112" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F112" s="37"/>
+      <c r="C112" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F112" s="21"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C113" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F113" s="37"/>
+      <c r="C113" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F113" s="21"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C114" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F114" s="37"/>
+      <c r="C114" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F114" s="21"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C115" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F115" s="37"/>
+      <c r="C115" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="21"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C116" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F116" s="37"/>
+      <c r="C116" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F116" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">
